--- a/ONCHO/Impact Assessments/Togo/tg_oncho_stop_1_site_202204.xlsx
+++ b/ONCHO/Impact Assessments/Togo/tg_oncho_stop_1_site_202204.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="267">
   <si>
     <t>type</t>
   </si>
@@ -267,192 +267,192 @@
     <t>KOUMONGOUKAN</t>
   </si>
   <si>
+    <t>MANTCHE</t>
+  </si>
+  <si>
+    <t>NAGBENI</t>
+  </si>
+  <si>
+    <t>SADORI</t>
+  </si>
+  <si>
+    <t>TCHANAGA</t>
+  </si>
+  <si>
+    <t>GANDO</t>
+  </si>
+  <si>
+    <t>KOUMONGOU</t>
+  </si>
+  <si>
+    <t>KOUNTOUARE</t>
+  </si>
+  <si>
+    <t>MOGOU</t>
+  </si>
+  <si>
+    <t>NALI</t>
+  </si>
+  <si>
+    <t>SAGBIEBOU</t>
+  </si>
+  <si>
+    <t>TAKPAMBA</t>
+  </si>
+  <si>
+    <t>TCHAMONGA</t>
+  </si>
+  <si>
+    <t>BOGOU</t>
+  </si>
+  <si>
+    <t>BOMBOUAKA</t>
+  </si>
+  <si>
+    <t>DOUKPELOU</t>
+  </si>
+  <si>
+    <t>LOKO</t>
+  </si>
+  <si>
+    <t>LOKPANO</t>
+  </si>
+  <si>
+    <t>MAMPROUGOU</t>
+  </si>
+  <si>
+    <t>NADONGUE</t>
+  </si>
+  <si>
+    <t>NANO</t>
+  </si>
+  <si>
+    <t>NASSONGUE</t>
+  </si>
+  <si>
+    <t>NAYERGOU</t>
+  </si>
+  <si>
+    <t>PLIGOU</t>
+  </si>
+  <si>
+    <t>SISSIAK</t>
+  </si>
+  <si>
+    <t>TAMPIALIM</t>
+  </si>
+  <si>
+    <t>YEMBOUR</t>
+  </si>
+  <si>
+    <t>DALWAK</t>
+  </si>
+  <si>
+    <t>DAPANKPERGOU</t>
+  </si>
+  <si>
+    <t>IDONDJOAG</t>
+  </si>
+  <si>
+    <t>KORBONGOU</t>
+  </si>
+  <si>
+    <t>KOUNTONG BONG</t>
+  </si>
+  <si>
+    <t>KOURIENTRE</t>
+  </si>
+  <si>
+    <t>MECAP-FR</t>
+  </si>
+  <si>
+    <t>NAKI-OUEST</t>
+  </si>
+  <si>
+    <t>NANERGOU</t>
+  </si>
+  <si>
+    <t>NIOUKPOURMA</t>
+  </si>
+  <si>
+    <t>PANA</t>
+  </si>
+  <si>
+    <t>POISSONGUI</t>
+  </si>
+  <si>
+    <t>Polyclinique</t>
+  </si>
+  <si>
+    <t>TAMI</t>
+  </si>
+  <si>
+    <t>TANIKAGOU</t>
+  </si>
+  <si>
+    <t>WARKAMBOU</t>
+  </si>
+  <si>
+    <t>BOULDJOARE</t>
+  </si>
+  <si>
+    <t>TAMBIMA</t>
+  </si>
+  <si>
+    <t>BARKOISSI CENTRE</t>
+  </si>
+  <si>
+    <t>NABAB</t>
+  </si>
+  <si>
+    <t>GABONGBONG</t>
+  </si>
+  <si>
+    <t>SAMOMONI</t>
+  </si>
+  <si>
+    <t>YAOKPATE</t>
+  </si>
+  <si>
+    <t>BAODE CENTRE</t>
+  </si>
+  <si>
+    <t>KASSOU</t>
+  </si>
+  <si>
+    <t>TINOGO</t>
+  </si>
+  <si>
+    <t>NANDJOARE</t>
+  </si>
+  <si>
+    <t>TINGOL</t>
+  </si>
+  <si>
+    <t>DJALOGUE</t>
+  </si>
+  <si>
+    <t>NASSIETTE</t>
+  </si>
+  <si>
+    <t>DJIYIAGA</t>
+  </si>
+  <si>
+    <t>KPAYENDIGUE</t>
+  </si>
+  <si>
+    <t>YIEGOU</t>
+  </si>
+  <si>
+    <t>DJANTCHOUGOU</t>
+  </si>
+  <si>
+    <t>NAKPAFOAGA</t>
+  </si>
+  <si>
     <t>MANGO</t>
   </si>
   <si>
-    <t>MANTCHE</t>
-  </si>
-  <si>
-    <t>NAGBENI</t>
-  </si>
-  <si>
-    <t>SADORI</t>
-  </si>
-  <si>
-    <t>TCHANAGA</t>
-  </si>
-  <si>
-    <t>GANDO</t>
-  </si>
-  <si>
-    <t>KOUMONGOU</t>
-  </si>
-  <si>
-    <t>KOUNTOUARE</t>
-  </si>
-  <si>
-    <t>MOGOU</t>
-  </si>
-  <si>
-    <t>NALI</t>
-  </si>
-  <si>
-    <t>SAGBIEBOU</t>
-  </si>
-  <si>
-    <t>TAKPAMBA</t>
-  </si>
-  <si>
-    <t>TCHAMONGA</t>
-  </si>
-  <si>
-    <t>BOGOU</t>
-  </si>
-  <si>
-    <t>BOMBOUAKA</t>
-  </si>
-  <si>
-    <t>DOUKPELOU</t>
-  </si>
-  <si>
-    <t>LOKO</t>
-  </si>
-  <si>
-    <t>LOKPANO</t>
-  </si>
-  <si>
-    <t>MAMPROUGOU</t>
-  </si>
-  <si>
-    <t>NADONGUE</t>
-  </si>
-  <si>
-    <t>NANO</t>
-  </si>
-  <si>
-    <t>NASSONGUE</t>
-  </si>
-  <si>
-    <t>NAYERGOU</t>
-  </si>
-  <si>
-    <t>PLIGOU</t>
-  </si>
-  <si>
-    <t>SISSIAK</t>
-  </si>
-  <si>
-    <t>TAMPIALIM</t>
-  </si>
-  <si>
-    <t>YEMBOUR</t>
-  </si>
-  <si>
-    <t>DALWAK</t>
-  </si>
-  <si>
-    <t>DAPANKPERGOU</t>
-  </si>
-  <si>
-    <t>IDONDJOAG</t>
-  </si>
-  <si>
-    <t>KORBONGOU</t>
-  </si>
-  <si>
-    <t>KOUNTONG BONG</t>
-  </si>
-  <si>
-    <t>KOURIENTRE</t>
-  </si>
-  <si>
-    <t>MECAP-FR</t>
-  </si>
-  <si>
-    <t>NAKI-OUEST</t>
-  </si>
-  <si>
-    <t>NANERGOU</t>
-  </si>
-  <si>
-    <t>NIOUKPOURMA</t>
-  </si>
-  <si>
-    <t>PANA</t>
-  </si>
-  <si>
-    <t>POISSONGUI</t>
-  </si>
-  <si>
-    <t>Polyclinique</t>
-  </si>
-  <si>
-    <t>TAMI</t>
-  </si>
-  <si>
-    <t>TANIKAGOU</t>
-  </si>
-  <si>
-    <t>WARKAMBOU</t>
-  </si>
-  <si>
-    <t>BOULDJOARE</t>
-  </si>
-  <si>
-    <t>TAMBIMA</t>
-  </si>
-  <si>
-    <t>BARKOISSI CENTRE</t>
-  </si>
-  <si>
-    <t>NABAB</t>
-  </si>
-  <si>
-    <t>GABONGBONG</t>
-  </si>
-  <si>
-    <t>SAMOMONI</t>
-  </si>
-  <si>
-    <t>YAOKPATE</t>
-  </si>
-  <si>
-    <t>BAODE CENTRE</t>
-  </si>
-  <si>
-    <t>KASSOU</t>
-  </si>
-  <si>
-    <t>TINOGO</t>
-  </si>
-  <si>
-    <t>NANDJOARE</t>
-  </si>
-  <si>
-    <t>TINGOL</t>
-  </si>
-  <si>
-    <t>DJALOGUE</t>
-  </si>
-  <si>
-    <t>NASSIETTE</t>
-  </si>
-  <si>
-    <t>DJIYIAGA</t>
-  </si>
-  <si>
-    <t>KPAYENDIGUE</t>
-  </si>
-  <si>
-    <t>YIEGOU</t>
-  </si>
-  <si>
-    <t>DJANTCHOUGOU</t>
-  </si>
-  <si>
-    <t>NAKPAFOAGA</t>
-  </si>
-  <si>
     <t>NAGBATI</t>
   </si>
   <si>
@@ -810,10 +810,10 @@
     <t xml:space="preserve">allow_choice_duplicates </t>
   </si>
   <si>
-    <t>(Mar 2022) ONCHO stop TDM - 1. Formulaire Site</t>
-  </si>
-  <si>
-    <t>tg_oncho_stop_1_site</t>
+    <t>(Avr 2022) ONCHO stop TDM - 1. Formulaire Site</t>
+  </si>
+  <si>
+    <t>tg_oncho_stop_1_site_202204</t>
   </si>
   <si>
     <t>French</t>
@@ -824,9 +824,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
@@ -884,6 +884,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -899,15 +907,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,9 +938,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,24 +960,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -969,7 +970,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -983,6 +984,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -990,34 +998,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1033,7 +1045,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,25 +1075,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,7 +1093,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,31 +1111,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,13 +1141,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,13 +1159,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,49 +1207,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,15 +1275,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1294,6 +1297,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1308,21 +1326,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1333,145 +1336,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1481,7 +1493,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1500,21 +1512,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1523,7 +1546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1532,7 +1555,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1888,276 +1911,276 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="18" spans="1:12">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" ht="28.5" spans="1:12">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:12">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:12">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:12">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:12">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:12">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:12">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:12">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:12">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:12">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="2:4">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" s="3" customFormat="1" spans="2:4">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="2:4">
       <c r="B14"/>
@@ -2174,15 +2197,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F363"/>
+  <dimension ref="A1:J362"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B361" sqref="B361:B363"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="$A35:$XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.3777777777778" customWidth="1"/>
     <col min="2" max="2" width="39.6222222222222" customWidth="1"/>
@@ -2225,7 +2248,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:6">
+    <row r="3" s="4" customFormat="1" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
@@ -2238,6 +2261,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:6">
       <c r="A4" s="6" t="s">
@@ -2493,7 +2517,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" s="4" customFormat="1" spans="1:6">
+    <row r="21" s="4" customFormat="1" spans="1:10">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -2508,6 +2532,7 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:6">
       <c r="A22" s="6" t="s">
@@ -2641,10 +2666,10 @@
       <c r="A30" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="8" t="s">
         <v>78</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -2792,7 +2817,7 @@
         <v>87</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -2920,7 +2945,7 @@
         <v>95</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -3144,7 +3169,7 @@
         <v>109</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
@@ -3390,28 +3415,28 @@
       <c r="F76" s="7"/>
     </row>
     <row r="77" s="4" customFormat="1" spans="1:6">
-      <c r="A77" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" s="4" customFormat="1" spans="1:6">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
+    <row r="78" spans="1:6">
+      <c r="A78" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
+      <c r="E78" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="6" t="s">
@@ -3427,7 +3452,7 @@
       <c r="E79" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F79" s="8"/>
+      <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="6" t="s">
@@ -3441,9 +3466,9 @@
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F80" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="6" t="s">
@@ -3459,7 +3484,7 @@
       <c r="E81" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F81" s="8"/>
+      <c r="F81" s="11"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="6" t="s">
@@ -3473,9 +3498,9 @@
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F82" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="F82" s="11"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="6" t="s">
@@ -3491,7 +3516,7 @@
       <c r="E83" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F83" s="8"/>
+      <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="6" t="s">
@@ -3507,7 +3532,7 @@
       <c r="E84" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F84" s="8"/>
+      <c r="F84" s="11"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="6" t="s">
@@ -3521,9 +3546,9 @@
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F85" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="F85" s="11"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="6" t="s">
@@ -3539,7 +3564,7 @@
       <c r="E86" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F86" s="8"/>
+      <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="6" t="s">
@@ -3555,7 +3580,7 @@
       <c r="E87" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F87" s="8"/>
+      <c r="F87" s="11"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="6" t="s">
@@ -3569,9 +3594,9 @@
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F88" s="8"/>
+        <v>95</v>
+      </c>
+      <c r="F88" s="11"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="6" t="s">
@@ -3585,9 +3610,9 @@
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F89" s="8"/>
+        <v>95</v>
+      </c>
+      <c r="F89" s="11"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="6" t="s">
@@ -3603,7 +3628,7 @@
       <c r="E90" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F90" s="8"/>
+      <c r="F90" s="11"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="6" t="s">
@@ -3617,9 +3642,9 @@
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F91" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="F91" s="11"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="6" t="s">
@@ -3633,9 +3658,9 @@
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F92" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="F92" s="11"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="6" t="s">
@@ -3651,7 +3676,7 @@
       <c r="E93" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F93" s="8"/>
+      <c r="F93" s="11"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="6" t="s">
@@ -3667,7 +3692,7 @@
       <c r="E94" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F94" s="8"/>
+      <c r="F94" s="11"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="6" t="s">
@@ -3681,9 +3706,9 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F95" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="F95" s="11"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="6" t="s">
@@ -3699,7 +3724,7 @@
       <c r="E96" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F96" s="8"/>
+      <c r="F96" s="11"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="6" t="s">
@@ -3712,1969 +3737,1969 @@
         <v>144</v>
       </c>
       <c r="D97" s="7"/>
-      <c r="E97" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F97" s="8"/>
+      <c r="E97" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F97" s="11"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="D98" s="7"/>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F98" s="8"/>
+      <c r="F98" s="11"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D99" s="7"/>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F99" s="8"/>
+      <c r="F99" s="11"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F100" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="F100" s="11"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F101" s="8"/>
+      <c r="F101" s="11"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F102" s="8"/>
+      <c r="F102" s="11"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F103" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="F103" s="11"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F104" s="8"/>
+      <c r="F104" s="11"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F105" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="F105" s="11"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F106" s="8"/>
+      <c r="F106" s="11"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F107" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="F107" s="11"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F108" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="F108" s="11"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F109" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="F109" s="11"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F110" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="F110" s="11"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F111" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="F111" s="11"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F112" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="F112" s="11"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F113" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="F113" s="11"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F114" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="F114" s="11"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F115" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="F115" s="11"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F116" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="F116" s="11"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F117" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="F117" s="11"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F118" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="F118" s="11"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F119" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="F119" s="11"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F120" s="8"/>
+      <c r="F120" s="11"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F121" s="8"/>
+      <c r="F121" s="11"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F122" s="8"/>
+        <v>113</v>
+      </c>
+      <c r="F122" s="11"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F123" s="8"/>
+        <v>89</v>
+      </c>
+      <c r="F123" s="11"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F124" s="8"/>
+        <v>89</v>
+      </c>
+      <c r="F124" s="11"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F125" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="F125" s="11"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F126" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="F126" s="11"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F127" s="8"/>
+      <c r="F127" s="11"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F128" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="F128" s="11"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F129" s="8"/>
+      <c r="F129" s="11"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F130" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="F130" s="11"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F131" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="F131" s="11"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D132" s="7"/>
-      <c r="E132" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F132" s="8"/>
+      <c r="E132" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F132" s="11"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D133" s="7"/>
-      <c r="E133" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F133" s="8"/>
+      <c r="E133" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F133" s="11"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D134" s="7"/>
-      <c r="E134" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F134" s="8"/>
+      <c r="E134" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F134" s="11"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F135" s="8"/>
+      <c r="F135" s="11"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F136" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="F136" s="11"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D137" s="7"/>
       <c r="E137" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F137" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="F137" s="11"/>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="D138" s="7"/>
       <c r="E138" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F138" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="F138" s="11"/>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F139" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="F139" s="11"/>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F140" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="F140" s="11"/>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F141" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="F141" s="11"/>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F142" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="F142" s="11"/>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F143" s="8"/>
+      <c r="F143" s="11"/>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F144" s="8"/>
+      <c r="F144" s="11"/>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F145" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="F145" s="11"/>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D146" s="7"/>
       <c r="E146" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F146" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="F146" s="11"/>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F147" s="8"/>
+        <v>187</v>
+      </c>
+      <c r="F147" s="11"/>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F148" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="F148" s="11"/>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D149" s="7"/>
       <c r="E149" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F149" s="8"/>
+        <v>91</v>
+      </c>
+      <c r="F149" s="11"/>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D150" s="7"/>
       <c r="E150" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F150" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="F150" s="11"/>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F151" s="8"/>
+      <c r="F151" s="11"/>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F152" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="F152" s="11"/>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F153" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="F153" s="11"/>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F154" s="8"/>
+      <c r="F154" s="11"/>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D155" s="7"/>
       <c r="E155" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F155" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="F155" s="11"/>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F156" s="8"/>
+      <c r="F156" s="11"/>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F157" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="F157" s="11"/>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F158" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="F158" s="11"/>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F159" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="F159" s="11"/>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F160" s="8"/>
+      <c r="F160" s="11"/>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F161" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="F161" s="11"/>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F162" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="F162" s="11"/>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F163" s="8"/>
+      <c r="F163" s="11"/>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D164" s="7"/>
       <c r="E164" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F164" s="8"/>
+      <c r="F164" s="11"/>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F165" s="8"/>
+      <c r="F165" s="11"/>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D166" s="7"/>
       <c r="E166" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F166" s="8"/>
+      <c r="F166" s="11"/>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F167" s="8"/>
+      <c r="F167" s="11"/>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D168" s="7"/>
       <c r="E168" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F168" s="8"/>
+      <c r="F168" s="11"/>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D169" s="7"/>
       <c r="E169" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F169" s="8"/>
+      <c r="F169" s="11"/>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D170" s="7"/>
       <c r="E170" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F170" s="8"/>
+      <c r="F170" s="11"/>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D171" s="7"/>
       <c r="E171" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F171" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="F171" s="11"/>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D172" s="7"/>
       <c r="E172" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F172" s="8"/>
+      <c r="F172" s="11"/>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D173" s="7"/>
       <c r="E173" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F173" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="F173" s="11"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F174" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="F174" s="11"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D175" s="7"/>
       <c r="E175" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F175" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="F175" s="11"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D176" s="7"/>
       <c r="E176" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F176" s="8"/>
+      <c r="F176" s="11"/>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D177" s="7"/>
       <c r="E177" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F177" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="F177" s="11"/>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="D178" s="7"/>
       <c r="E178" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F178" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="F178" s="11"/>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="D179" s="7"/>
       <c r="E179" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F179" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="F179" s="11"/>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F180" s="8"/>
+        <v>92</v>
+      </c>
+      <c r="F180" s="11"/>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F181" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="F181" s="11"/>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F182" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="F182" s="11"/>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F183" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="F183" s="11"/>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D184" s="7"/>
       <c r="E184" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F184" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="F184" s="11"/>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D185" s="7"/>
       <c r="E185" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F185" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="F185" s="11"/>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D186" s="7"/>
       <c r="E186" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F186" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="F186" s="11"/>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D187" s="7"/>
       <c r="E187" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F187" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="F187" s="11"/>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D188" s="7"/>
       <c r="E188" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F188" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="F188" s="11"/>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="D189" s="7"/>
       <c r="E189" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F189" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="F189" s="11"/>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="D190" s="7"/>
       <c r="E190" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F190" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="F190" s="11"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D191" s="7"/>
       <c r="E191" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F191" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="F191" s="11"/>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D192" s="7"/>
       <c r="E192" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F192" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="F192" s="11"/>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D193" s="7"/>
       <c r="E193" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F193" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="F193" s="11"/>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D194" s="7"/>
       <c r="E194" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F194" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="F194" s="11"/>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D195" s="7"/>
       <c r="E195" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F195" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="F195" s="11"/>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D196" s="7"/>
       <c r="E196" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F196" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="F196" s="11"/>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D197" s="7"/>
       <c r="E197" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F197" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="F197" s="11"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D198" s="7"/>
       <c r="E198" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F198" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="F198" s="11"/>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D199" s="7"/>
       <c r="E199" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F199" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="F199" s="11"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D200" s="7"/>
       <c r="E200" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F200" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="F200" s="11"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D201" s="7"/>
       <c r="E201" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F201" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="F201" s="11"/>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D202" s="7"/>
       <c r="E202" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F202" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="F202" s="11"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D203" s="7"/>
       <c r="E203" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F203" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="F203" s="11"/>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D204" s="7"/>
       <c r="E204" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F204" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="F204" s="11"/>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D205" s="7"/>
       <c r="E205" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F205" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="F205" s="11"/>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D206" s="7"/>
       <c r="E206" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F206" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="F206" s="11"/>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D207" s="7"/>
       <c r="E207" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F207" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="F207" s="11"/>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D208" s="7"/>
       <c r="E208" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F208" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="F208" s="11"/>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D209" s="7"/>
       <c r="E209" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F209" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="F209" s="11"/>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>247</v>
+        <v>86</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>247</v>
+        <v>86</v>
       </c>
       <c r="D210" s="7"/>
       <c r="E210" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F210" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="F210" s="11"/>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>87</v>
+        <v>248</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>87</v>
+        <v>248</v>
       </c>
       <c r="D211" s="7"/>
       <c r="E211" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F211" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="F211" s="11"/>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D212" s="7"/>
       <c r="E212" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F212" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="F212" s="11"/>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D213" s="7"/>
       <c r="E213" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F213" s="8"/>
+      <c r="F213" s="11"/>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D214" s="7"/>
       <c r="E214" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F214" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="F214" s="11"/>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D215" s="7"/>
       <c r="E215" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F215" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="F215" s="11"/>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D216" s="7"/>
       <c r="E216" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F216" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="F216" s="11"/>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D217" s="7"/>
       <c r="E217" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F217" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="F217" s="11"/>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>254</v>
-      </c>
+      <c r="A218" s="6"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
       <c r="D218" s="7"/>
-      <c r="E218" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F218" s="8"/>
+      <c r="E218" s="7"/>
+      <c r="F218" s="11"/>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="6"/>
-      <c r="B219" s="6"/>
-      <c r="C219" s="6"/>
-      <c r="D219" s="7"/>
-      <c r="E219" s="7"/>
-      <c r="F219" s="8"/>
+      <c r="A219" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B219" s="6">
+        <v>101</v>
+      </c>
+      <c r="C219" s="6">
+        <v>101</v>
+      </c>
+      <c r="D219" s="11"/>
+      <c r="E219" s="11"/>
+      <c r="F219" s="7" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="6" t="s">
         <v>255</v>
       </c>
       <c r="B220" s="6">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C220" s="6">
-        <v>101</v>
-      </c>
-      <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
       <c r="F220" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5682,15 +5707,15 @@
         <v>255</v>
       </c>
       <c r="B221" s="6">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C221" s="6">
-        <v>102</v>
-      </c>
-      <c r="D221" s="8"/>
-      <c r="E221" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="D221" s="11"/>
+      <c r="E221" s="11"/>
       <c r="F221" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5698,15 +5723,15 @@
         <v>255</v>
       </c>
       <c r="B222" s="6">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C222" s="6">
-        <v>103</v>
-      </c>
-      <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
       <c r="F222" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5714,13 +5739,13 @@
         <v>255</v>
       </c>
       <c r="B223" s="6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C223" s="6">
-        <v>104</v>
-      </c>
-      <c r="D223" s="8"/>
-      <c r="E223" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="D223" s="11"/>
+      <c r="E223" s="11"/>
       <c r="F223" s="7" t="s">
         <v>133</v>
       </c>
@@ -5730,13 +5755,13 @@
         <v>255</v>
       </c>
       <c r="B224" s="6">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C224" s="6">
-        <v>105</v>
-      </c>
-      <c r="D224" s="8"/>
-      <c r="E224" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="D224" s="11"/>
+      <c r="E224" s="11"/>
       <c r="F224" s="7" t="s">
         <v>134</v>
       </c>
@@ -5746,15 +5771,15 @@
         <v>255</v>
       </c>
       <c r="B225" s="6">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C225" s="6">
-        <v>106</v>
-      </c>
-      <c r="D225" s="8"/>
-      <c r="E225" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="D225" s="11"/>
+      <c r="E225" s="11"/>
       <c r="F225" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5762,15 +5787,15 @@
         <v>255</v>
       </c>
       <c r="B226" s="6">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C226" s="6">
-        <v>107</v>
-      </c>
-      <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="D226" s="11"/>
+      <c r="E226" s="11"/>
       <c r="F226" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5778,15 +5803,15 @@
         <v>255</v>
       </c>
       <c r="B227" s="6">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C227" s="6">
-        <v>108</v>
-      </c>
-      <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="D227" s="11"/>
+      <c r="E227" s="11"/>
       <c r="F227" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5794,15 +5819,15 @@
         <v>255</v>
       </c>
       <c r="B228" s="6">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C228" s="6">
-        <v>109</v>
-      </c>
-      <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
+        <v>110</v>
+      </c>
+      <c r="D228" s="11"/>
+      <c r="E228" s="11"/>
       <c r="F228" s="7" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5810,15 +5835,15 @@
         <v>255</v>
       </c>
       <c r="B229" s="6">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C229" s="6">
-        <v>110</v>
-      </c>
-      <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="D229" s="11"/>
+      <c r="E229" s="11"/>
       <c r="F229" s="7" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5826,15 +5851,15 @@
         <v>255</v>
       </c>
       <c r="B230" s="6">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C230" s="6">
-        <v>111</v>
-      </c>
-      <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="D230" s="11"/>
+      <c r="E230" s="11"/>
       <c r="F230" s="7" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5842,15 +5867,15 @@
         <v>255</v>
       </c>
       <c r="B231" s="6">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C231" s="6">
-        <v>112</v>
-      </c>
-      <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
+        <v>113</v>
+      </c>
+      <c r="D231" s="11"/>
+      <c r="E231" s="11"/>
       <c r="F231" s="7" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5858,15 +5883,15 @@
         <v>255</v>
       </c>
       <c r="B232" s="6">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C232" s="6">
-        <v>113</v>
-      </c>
-      <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
       <c r="F232" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5874,15 +5899,15 @@
         <v>255</v>
       </c>
       <c r="B233" s="6">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C233" s="6">
-        <v>114</v>
-      </c>
-      <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="D233" s="11"/>
+      <c r="E233" s="11"/>
       <c r="F233" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5890,15 +5915,15 @@
         <v>255</v>
       </c>
       <c r="B234" s="6">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C234" s="6">
-        <v>115</v>
-      </c>
-      <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="D234" s="11"/>
+      <c r="E234" s="11"/>
       <c r="F234" s="7" t="s">
-        <v>249</v>
+        <v>125</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5906,13 +5931,13 @@
         <v>255</v>
       </c>
       <c r="B235" s="6">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C235" s="6">
-        <v>116</v>
-      </c>
-      <c r="D235" s="8"/>
-      <c r="E235" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
       <c r="F235" s="7" t="s">
         <v>126</v>
       </c>
@@ -5922,15 +5947,15 @@
         <v>255</v>
       </c>
       <c r="B236" s="6">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C236" s="6">
-        <v>117</v>
-      </c>
-      <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="D236" s="11"/>
+      <c r="E236" s="11"/>
       <c r="F236" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5938,15 +5963,15 @@
         <v>255</v>
       </c>
       <c r="B237" s="6">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C237" s="6">
-        <v>118</v>
-      </c>
-      <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
       <c r="F237" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5954,15 +5979,15 @@
         <v>255</v>
       </c>
       <c r="B238" s="6">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C238" s="6">
-        <v>119</v>
-      </c>
-      <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="D238" s="11"/>
+      <c r="E238" s="11"/>
       <c r="F238" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5970,15 +5995,15 @@
         <v>255</v>
       </c>
       <c r="B239" s="6">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C239" s="6">
-        <v>120</v>
-      </c>
-      <c r="D239" s="8"/>
-      <c r="E239" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="D239" s="11"/>
+      <c r="E239" s="11"/>
       <c r="F239" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5986,13 +6011,13 @@
         <v>255</v>
       </c>
       <c r="B240" s="6">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C240" s="6">
-        <v>121</v>
-      </c>
-      <c r="D240" s="8"/>
-      <c r="E240" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
       <c r="F240" s="7" t="s">
         <v>143</v>
       </c>
@@ -6002,15 +6027,15 @@
         <v>255</v>
       </c>
       <c r="B241" s="6">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C241" s="6">
-        <v>122</v>
-      </c>
-      <c r="D241" s="8"/>
-      <c r="E241" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
       <c r="F241" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6018,15 +6043,15 @@
         <v>255</v>
       </c>
       <c r="B242" s="6">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C242" s="6">
-        <v>123</v>
-      </c>
-      <c r="D242" s="8"/>
-      <c r="E242" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="D242" s="11"/>
+      <c r="E242" s="11"/>
       <c r="F242" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6034,15 +6059,15 @@
         <v>255</v>
       </c>
       <c r="B243" s="6">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C243" s="6">
-        <v>124</v>
-      </c>
-      <c r="D243" s="8"/>
-      <c r="E243" s="8"/>
+        <v>125</v>
+      </c>
+      <c r="D243" s="11"/>
+      <c r="E243" s="11"/>
       <c r="F243" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6050,15 +6075,15 @@
         <v>255</v>
       </c>
       <c r="B244" s="6">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C244" s="6">
-        <v>125</v>
-      </c>
-      <c r="D244" s="8"/>
-      <c r="E244" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="D244" s="11"/>
+      <c r="E244" s="11"/>
       <c r="F244" s="7" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,15 +6091,15 @@
         <v>255</v>
       </c>
       <c r="B245" s="6">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C245" s="6">
-        <v>126</v>
-      </c>
-      <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="D245" s="11"/>
+      <c r="E245" s="11"/>
       <c r="F245" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6082,15 +6107,15 @@
         <v>255</v>
       </c>
       <c r="B246" s="6">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C246" s="6">
-        <v>127</v>
-      </c>
-      <c r="D246" s="8"/>
-      <c r="E246" s="8"/>
+        <v>128</v>
+      </c>
+      <c r="D246" s="11"/>
+      <c r="E246" s="11"/>
       <c r="F246" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6098,15 +6123,15 @@
         <v>255</v>
       </c>
       <c r="B247" s="6">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C247" s="6">
-        <v>128</v>
-      </c>
-      <c r="D247" s="8"/>
-      <c r="E247" s="8"/>
+        <v>129</v>
+      </c>
+      <c r="D247" s="11"/>
+      <c r="E247" s="11"/>
       <c r="F247" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,15 +6139,15 @@
         <v>255</v>
       </c>
       <c r="B248" s="6">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C248" s="6">
-        <v>129</v>
-      </c>
-      <c r="D248" s="8"/>
-      <c r="E248" s="8"/>
+        <v>130</v>
+      </c>
+      <c r="D248" s="11"/>
+      <c r="E248" s="11"/>
       <c r="F248" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6130,15 +6155,15 @@
         <v>255</v>
       </c>
       <c r="B249" s="6">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C249" s="6">
-        <v>130</v>
-      </c>
-      <c r="D249" s="8"/>
-      <c r="E249" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="D249" s="11"/>
+      <c r="E249" s="11"/>
       <c r="F249" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6146,15 +6171,15 @@
         <v>255</v>
       </c>
       <c r="B250" s="6">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C250" s="6">
-        <v>131</v>
-      </c>
-      <c r="D250" s="8"/>
-      <c r="E250" s="8"/>
+        <v>132</v>
+      </c>
+      <c r="D250" s="11"/>
+      <c r="E250" s="11"/>
       <c r="F250" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6162,15 +6187,15 @@
         <v>255</v>
       </c>
       <c r="B251" s="6">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C251" s="6">
-        <v>132</v>
-      </c>
-      <c r="D251" s="8"/>
-      <c r="E251" s="8"/>
+        <v>133</v>
+      </c>
+      <c r="D251" s="11"/>
+      <c r="E251" s="11"/>
       <c r="F251" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6178,15 +6203,15 @@
         <v>255</v>
       </c>
       <c r="B252" s="6">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C252" s="6">
-        <v>133</v>
-      </c>
-      <c r="D252" s="8"/>
-      <c r="E252" s="8"/>
+        <v>134</v>
+      </c>
+      <c r="D252" s="11"/>
+      <c r="E252" s="11"/>
       <c r="F252" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6194,15 +6219,15 @@
         <v>255</v>
       </c>
       <c r="B253" s="6">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C253" s="6">
-        <v>134</v>
-      </c>
-      <c r="D253" s="8"/>
-      <c r="E253" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="D253" s="11"/>
+      <c r="E253" s="11"/>
       <c r="F253" s="7" t="s">
-        <v>206</v>
+        <v>70</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6210,15 +6235,15 @@
         <v>255</v>
       </c>
       <c r="B254" s="6">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C254" s="6">
-        <v>135</v>
-      </c>
-      <c r="D254" s="8"/>
-      <c r="E254" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="D254" s="11"/>
+      <c r="E254" s="11"/>
       <c r="F254" s="7" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6226,15 +6251,15 @@
         <v>255</v>
       </c>
       <c r="B255" s="6">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C255" s="6">
-        <v>136</v>
-      </c>
-      <c r="D255" s="8"/>
-      <c r="E255" s="8"/>
+        <v>137</v>
+      </c>
+      <c r="D255" s="11"/>
+      <c r="E255" s="11"/>
       <c r="F255" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6242,15 +6267,15 @@
         <v>255</v>
       </c>
       <c r="B256" s="6">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C256" s="6">
-        <v>137</v>
-      </c>
-      <c r="D256" s="8"/>
-      <c r="E256" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="D256" s="11"/>
+      <c r="E256" s="11"/>
       <c r="F256" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6258,15 +6283,15 @@
         <v>255</v>
       </c>
       <c r="B257" s="6">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C257" s="6">
-        <v>138</v>
-      </c>
-      <c r="D257" s="8"/>
-      <c r="E257" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="D257" s="11"/>
+      <c r="E257" s="11"/>
       <c r="F257" s="7" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6274,15 +6299,15 @@
         <v>255</v>
       </c>
       <c r="B258" s="6">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C258" s="6">
-        <v>139</v>
-      </c>
-      <c r="D258" s="8"/>
-      <c r="E258" s="8"/>
+        <v>140</v>
+      </c>
+      <c r="D258" s="11"/>
+      <c r="E258" s="11"/>
       <c r="F258" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6290,15 +6315,15 @@
         <v>255</v>
       </c>
       <c r="B259" s="6">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C259" s="6">
-        <v>140</v>
-      </c>
-      <c r="D259" s="8"/>
-      <c r="E259" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="D259" s="11"/>
+      <c r="E259" s="11"/>
       <c r="F259" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6306,15 +6331,15 @@
         <v>255</v>
       </c>
       <c r="B260" s="6">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C260" s="6">
-        <v>141</v>
-      </c>
-      <c r="D260" s="8"/>
-      <c r="E260" s="8"/>
+        <v>142</v>
+      </c>
+      <c r="D260" s="11"/>
+      <c r="E260" s="11"/>
       <c r="F260" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6322,15 +6347,15 @@
         <v>255</v>
       </c>
       <c r="B261" s="6">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C261" s="6">
-        <v>142</v>
-      </c>
-      <c r="D261" s="8"/>
-      <c r="E261" s="8"/>
+        <v>143</v>
+      </c>
+      <c r="D261" s="11"/>
+      <c r="E261" s="11"/>
       <c r="F261" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6338,15 +6363,15 @@
         <v>255</v>
       </c>
       <c r="B262" s="6">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C262" s="6">
-        <v>143</v>
-      </c>
-      <c r="D262" s="8"/>
-      <c r="E262" s="8"/>
+        <v>144</v>
+      </c>
+      <c r="D262" s="11"/>
+      <c r="E262" s="11"/>
       <c r="F262" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6354,15 +6379,15 @@
         <v>255</v>
       </c>
       <c r="B263" s="6">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C263" s="6">
-        <v>144</v>
-      </c>
-      <c r="D263" s="8"/>
-      <c r="E263" s="8"/>
+        <v>145</v>
+      </c>
+      <c r="D263" s="11"/>
+      <c r="E263" s="11"/>
       <c r="F263" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6370,15 +6395,15 @@
         <v>255</v>
       </c>
       <c r="B264" s="6">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C264" s="6">
-        <v>145</v>
-      </c>
-      <c r="D264" s="8"/>
-      <c r="E264" s="8"/>
+        <v>146</v>
+      </c>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11"/>
       <c r="F264" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6386,15 +6411,15 @@
         <v>255</v>
       </c>
       <c r="B265" s="6">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C265" s="6">
-        <v>146</v>
-      </c>
-      <c r="D265" s="8"/>
-      <c r="E265" s="8"/>
+        <v>147</v>
+      </c>
+      <c r="D265" s="11"/>
+      <c r="E265" s="11"/>
       <c r="F265" s="7" t="s">
-        <v>214</v>
+        <v>76</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6402,15 +6427,15 @@
         <v>255</v>
       </c>
       <c r="B266" s="6">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C266" s="6">
-        <v>147</v>
-      </c>
-      <c r="D266" s="8"/>
-      <c r="E266" s="8"/>
+        <v>148</v>
+      </c>
+      <c r="D266" s="11"/>
+      <c r="E266" s="11"/>
       <c r="F266" s="7" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6418,13 +6443,13 @@
         <v>255</v>
       </c>
       <c r="B267" s="6">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C267" s="6">
-        <v>148</v>
-      </c>
-      <c r="D267" s="8"/>
-      <c r="E267" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="D267" s="11"/>
+      <c r="E267" s="11"/>
       <c r="F267" s="7" t="s">
         <v>128</v>
       </c>
@@ -6434,15 +6459,15 @@
         <v>255</v>
       </c>
       <c r="B268" s="6">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C268" s="6">
-        <v>149</v>
-      </c>
-      <c r="D268" s="8"/>
-      <c r="E268" s="8"/>
+        <v>150</v>
+      </c>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11"/>
       <c r="F268" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6450,15 +6475,15 @@
         <v>255</v>
       </c>
       <c r="B269" s="6">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C269" s="6">
-        <v>150</v>
-      </c>
-      <c r="D269" s="8"/>
-      <c r="E269" s="8"/>
+        <v>151</v>
+      </c>
+      <c r="D269" s="11"/>
+      <c r="E269" s="11"/>
       <c r="F269" s="7" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6466,15 +6491,15 @@
         <v>255</v>
       </c>
       <c r="B270" s="6">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C270" s="6">
-        <v>151</v>
-      </c>
-      <c r="D270" s="8"/>
-      <c r="E270" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11"/>
       <c r="F270" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6482,15 +6507,15 @@
         <v>255</v>
       </c>
       <c r="B271" s="6">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C271" s="6">
-        <v>152</v>
-      </c>
-      <c r="D271" s="8"/>
-      <c r="E271" s="8"/>
+        <v>153</v>
+      </c>
+      <c r="D271" s="11"/>
+      <c r="E271" s="11"/>
       <c r="F271" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6498,15 +6523,15 @@
         <v>255</v>
       </c>
       <c r="B272" s="6">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C272" s="6">
-        <v>153</v>
-      </c>
-      <c r="D272" s="8"/>
-      <c r="E272" s="8"/>
+        <v>154</v>
+      </c>
+      <c r="D272" s="11"/>
+      <c r="E272" s="11"/>
       <c r="F272" s="7" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6514,15 +6539,15 @@
         <v>255</v>
       </c>
       <c r="B273" s="6">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C273" s="6">
-        <v>154</v>
-      </c>
-      <c r="D273" s="8"/>
-      <c r="E273" s="8"/>
+        <v>155</v>
+      </c>
+      <c r="D273" s="11"/>
+      <c r="E273" s="11"/>
       <c r="F273" s="7" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6530,15 +6555,15 @@
         <v>255</v>
       </c>
       <c r="B274" s="6">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C274" s="6">
-        <v>155</v>
-      </c>
-      <c r="D274" s="8"/>
-      <c r="E274" s="8"/>
+        <v>156</v>
+      </c>
+      <c r="D274" s="11"/>
+      <c r="E274" s="11"/>
       <c r="F274" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6546,15 +6571,15 @@
         <v>255</v>
       </c>
       <c r="B275" s="6">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C275" s="6">
-        <v>156</v>
-      </c>
-      <c r="D275" s="8"/>
-      <c r="E275" s="8"/>
+        <v>157</v>
+      </c>
+      <c r="D275" s="11"/>
+      <c r="E275" s="11"/>
       <c r="F275" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6562,15 +6587,15 @@
         <v>255</v>
       </c>
       <c r="B276" s="6">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C276" s="6">
-        <v>157</v>
-      </c>
-      <c r="D276" s="8"/>
-      <c r="E276" s="8"/>
+        <v>158</v>
+      </c>
+      <c r="D276" s="11"/>
+      <c r="E276" s="11"/>
       <c r="F276" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6578,15 +6603,15 @@
         <v>255</v>
       </c>
       <c r="B277" s="6">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C277" s="6">
-        <v>158</v>
-      </c>
-      <c r="D277" s="8"/>
-      <c r="E277" s="8"/>
+        <v>159</v>
+      </c>
+      <c r="D277" s="11"/>
+      <c r="E277" s="11"/>
       <c r="F277" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6594,15 +6619,15 @@
         <v>255</v>
       </c>
       <c r="B278" s="6">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C278" s="6">
-        <v>159</v>
-      </c>
-      <c r="D278" s="8"/>
-      <c r="E278" s="8"/>
+        <v>160</v>
+      </c>
+      <c r="D278" s="11"/>
+      <c r="E278" s="11"/>
       <c r="F278" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6610,15 +6635,15 @@
         <v>255</v>
       </c>
       <c r="B279" s="6">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C279" s="6">
-        <v>160</v>
-      </c>
-      <c r="D279" s="8"/>
-      <c r="E279" s="8"/>
+        <v>161</v>
+      </c>
+      <c r="D279" s="11"/>
+      <c r="E279" s="11"/>
       <c r="F279" s="7" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6626,15 +6651,15 @@
         <v>255</v>
       </c>
       <c r="B280" s="6">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C280" s="6">
-        <v>161</v>
-      </c>
-      <c r="D280" s="8"/>
-      <c r="E280" s="8"/>
+        <v>162</v>
+      </c>
+      <c r="D280" s="11"/>
+      <c r="E280" s="11"/>
       <c r="F280" s="7" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6642,15 +6667,15 @@
         <v>255</v>
       </c>
       <c r="B281" s="6">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C281" s="6">
-        <v>162</v>
-      </c>
-      <c r="D281" s="8"/>
-      <c r="E281" s="8"/>
+        <v>163</v>
+      </c>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11"/>
       <c r="F281" s="7" t="s">
-        <v>185</v>
+        <v>85</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6658,15 +6683,15 @@
         <v>255</v>
       </c>
       <c r="B282" s="6">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C282" s="6">
-        <v>163</v>
-      </c>
-      <c r="D282" s="8"/>
-      <c r="E282" s="8"/>
+        <v>164</v>
+      </c>
+      <c r="D282" s="11"/>
+      <c r="E282" s="11"/>
       <c r="F282" s="7" t="s">
-        <v>86</v>
+        <v>217</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6674,15 +6699,15 @@
         <v>255</v>
       </c>
       <c r="B283" s="6">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C283" s="6">
-        <v>164</v>
-      </c>
-      <c r="D283" s="8"/>
-      <c r="E283" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="D283" s="11"/>
+      <c r="E283" s="11"/>
       <c r="F283" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6690,15 +6715,15 @@
         <v>255</v>
       </c>
       <c r="B284" s="6">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C284" s="6">
-        <v>165</v>
-      </c>
-      <c r="D284" s="8"/>
-      <c r="E284" s="8"/>
+        <v>166</v>
+      </c>
+      <c r="D284" s="11"/>
+      <c r="E284" s="11"/>
       <c r="F284" s="7" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6706,15 +6731,15 @@
         <v>255</v>
       </c>
       <c r="B285" s="6">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C285" s="6">
-        <v>166</v>
-      </c>
-      <c r="D285" s="8"/>
-      <c r="E285" s="8"/>
+        <v>167</v>
+      </c>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11"/>
       <c r="F285" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6722,15 +6747,15 @@
         <v>255</v>
       </c>
       <c r="B286" s="6">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C286" s="6">
-        <v>167</v>
-      </c>
-      <c r="D286" s="8"/>
-      <c r="E286" s="8"/>
+        <v>168</v>
+      </c>
+      <c r="D286" s="11"/>
+      <c r="E286" s="11"/>
       <c r="F286" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6738,15 +6763,15 @@
         <v>255</v>
       </c>
       <c r="B287" s="6">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C287" s="6">
-        <v>168</v>
-      </c>
-      <c r="D287" s="8"/>
-      <c r="E287" s="8"/>
+        <v>169</v>
+      </c>
+      <c r="D287" s="11"/>
+      <c r="E287" s="11"/>
       <c r="F287" s="7" t="s">
-        <v>248</v>
+        <v>86</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6754,15 +6779,15 @@
         <v>255</v>
       </c>
       <c r="B288" s="6">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C288" s="6">
-        <v>169</v>
-      </c>
-      <c r="D288" s="8"/>
-      <c r="E288" s="8"/>
+        <v>170</v>
+      </c>
+      <c r="D288" s="11"/>
+      <c r="E288" s="11"/>
       <c r="F288" s="7" t="s">
-        <v>87</v>
+        <v>243</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6770,15 +6795,15 @@
         <v>255</v>
       </c>
       <c r="B289" s="6">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C289" s="6">
-        <v>170</v>
-      </c>
-      <c r="D289" s="8"/>
-      <c r="E289" s="8"/>
+        <v>171</v>
+      </c>
+      <c r="D289" s="11"/>
+      <c r="E289" s="11"/>
       <c r="F289" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6786,15 +6811,15 @@
         <v>255</v>
       </c>
       <c r="B290" s="6">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C290" s="6">
-        <v>171</v>
-      </c>
-      <c r="D290" s="8"/>
-      <c r="E290" s="8"/>
+        <v>172</v>
+      </c>
+      <c r="D290" s="11"/>
+      <c r="E290" s="11"/>
       <c r="F290" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6802,15 +6827,15 @@
         <v>255</v>
       </c>
       <c r="B291" s="6">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C291" s="6">
-        <v>172</v>
-      </c>
-      <c r="D291" s="8"/>
-      <c r="E291" s="8"/>
+        <v>173</v>
+      </c>
+      <c r="D291" s="11"/>
+      <c r="E291" s="11"/>
       <c r="F291" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6818,15 +6843,15 @@
         <v>255</v>
       </c>
       <c r="B292" s="6">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C292" s="6">
-        <v>173</v>
-      </c>
-      <c r="D292" s="8"/>
-      <c r="E292" s="8"/>
+        <v>174</v>
+      </c>
+      <c r="D292" s="11"/>
+      <c r="E292" s="11"/>
       <c r="F292" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6834,15 +6859,15 @@
         <v>255</v>
       </c>
       <c r="B293" s="6">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C293" s="6">
-        <v>174</v>
-      </c>
-      <c r="D293" s="8"/>
-      <c r="E293" s="8"/>
+        <v>175</v>
+      </c>
+      <c r="D293" s="11"/>
+      <c r="E293" s="11"/>
       <c r="F293" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6850,15 +6875,15 @@
         <v>255</v>
       </c>
       <c r="B294" s="6">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C294" s="6">
-        <v>175</v>
-      </c>
-      <c r="D294" s="8"/>
-      <c r="E294" s="8"/>
+        <v>176</v>
+      </c>
+      <c r="D294" s="11"/>
+      <c r="E294" s="11"/>
       <c r="F294" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6866,15 +6891,15 @@
         <v>255</v>
       </c>
       <c r="B295" s="6">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C295" s="6">
-        <v>176</v>
-      </c>
-      <c r="D295" s="8"/>
-      <c r="E295" s="8"/>
+        <v>177</v>
+      </c>
+      <c r="D295" s="11"/>
+      <c r="E295" s="11"/>
       <c r="F295" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6882,15 +6907,15 @@
         <v>255</v>
       </c>
       <c r="B296" s="6">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C296" s="6">
-        <v>177</v>
-      </c>
-      <c r="D296" s="8"/>
-      <c r="E296" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="D296" s="11"/>
+      <c r="E296" s="11"/>
       <c r="F296" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6898,15 +6923,15 @@
         <v>255</v>
       </c>
       <c r="B297" s="6">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C297" s="6">
-        <v>178</v>
-      </c>
-      <c r="D297" s="8"/>
-      <c r="E297" s="8"/>
+        <v>179</v>
+      </c>
+      <c r="D297" s="11"/>
+      <c r="E297" s="11"/>
       <c r="F297" s="7" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6914,15 +6939,15 @@
         <v>255</v>
       </c>
       <c r="B298" s="6">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C298" s="6">
-        <v>179</v>
-      </c>
-      <c r="D298" s="8"/>
-      <c r="E298" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="D298" s="11"/>
+      <c r="E298" s="11"/>
       <c r="F298" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6930,15 +6955,15 @@
         <v>255</v>
       </c>
       <c r="B299" s="6">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C299" s="6">
-        <v>180</v>
-      </c>
-      <c r="D299" s="8"/>
-      <c r="E299" s="8"/>
+        <v>181</v>
+      </c>
+      <c r="D299" s="11"/>
+      <c r="E299" s="11"/>
       <c r="F299" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6946,15 +6971,15 @@
         <v>255</v>
       </c>
       <c r="B300" s="6">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C300" s="6">
-        <v>181</v>
-      </c>
-      <c r="D300" s="8"/>
-      <c r="E300" s="8"/>
+        <v>182</v>
+      </c>
+      <c r="D300" s="11"/>
+      <c r="E300" s="11"/>
       <c r="F300" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6962,15 +6987,15 @@
         <v>255</v>
       </c>
       <c r="B301" s="6">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C301" s="6">
-        <v>182</v>
-      </c>
-      <c r="D301" s="8"/>
-      <c r="E301" s="8"/>
+        <v>183</v>
+      </c>
+      <c r="D301" s="11"/>
+      <c r="E301" s="11"/>
       <c r="F301" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -6978,15 +7003,15 @@
         <v>255</v>
       </c>
       <c r="B302" s="6">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C302" s="6">
-        <v>183</v>
-      </c>
-      <c r="D302" s="8"/>
-      <c r="E302" s="8"/>
+        <v>184</v>
+      </c>
+      <c r="D302" s="11"/>
+      <c r="E302" s="11"/>
       <c r="F302" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6994,15 +7019,15 @@
         <v>255</v>
       </c>
       <c r="B303" s="6">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C303" s="6">
-        <v>184</v>
-      </c>
-      <c r="D303" s="8"/>
-      <c r="E303" s="8"/>
+        <v>185</v>
+      </c>
+      <c r="D303" s="11"/>
+      <c r="E303" s="11"/>
       <c r="F303" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -7010,15 +7035,15 @@
         <v>255</v>
       </c>
       <c r="B304" s="6">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C304" s="6">
-        <v>185</v>
-      </c>
-      <c r="D304" s="8"/>
-      <c r="E304" s="8"/>
+        <v>186</v>
+      </c>
+      <c r="D304" s="11"/>
+      <c r="E304" s="11"/>
       <c r="F304" s="7" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -7026,15 +7051,15 @@
         <v>255</v>
       </c>
       <c r="B305" s="6">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C305" s="6">
-        <v>186</v>
-      </c>
-      <c r="D305" s="8"/>
-      <c r="E305" s="8"/>
+        <v>187</v>
+      </c>
+      <c r="D305" s="11"/>
+      <c r="E305" s="11"/>
       <c r="F305" s="7" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -7042,15 +7067,15 @@
         <v>255</v>
       </c>
       <c r="B306" s="6">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C306" s="6">
-        <v>187</v>
-      </c>
-      <c r="D306" s="8"/>
-      <c r="E306" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="D306" s="11"/>
+      <c r="E306" s="11"/>
       <c r="F306" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -7058,15 +7083,15 @@
         <v>255</v>
       </c>
       <c r="B307" s="6">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C307" s="6">
-        <v>188</v>
-      </c>
-      <c r="D307" s="8"/>
-      <c r="E307" s="8"/>
+        <v>189</v>
+      </c>
+      <c r="D307" s="11"/>
+      <c r="E307" s="11"/>
       <c r="F307" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -7074,15 +7099,15 @@
         <v>255</v>
       </c>
       <c r="B308" s="6">
+        <v>190</v>
+      </c>
+      <c r="C308" s="6">
+        <v>190</v>
+      </c>
+      <c r="D308" s="11"/>
+      <c r="E308" s="11"/>
+      <c r="F308" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="C308" s="6">
-        <v>189</v>
-      </c>
-      <c r="D308" s="8"/>
-      <c r="E308" s="8"/>
-      <c r="F308" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -7090,15 +7115,15 @@
         <v>255</v>
       </c>
       <c r="B309" s="6">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C309" s="6">
-        <v>190</v>
-      </c>
-      <c r="D309" s="8"/>
-      <c r="E309" s="8"/>
+        <v>191</v>
+      </c>
+      <c r="D309" s="11"/>
+      <c r="E309" s="11"/>
       <c r="F309" s="7" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -7106,15 +7131,15 @@
         <v>255</v>
       </c>
       <c r="B310" s="6">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C310" s="6">
-        <v>191</v>
-      </c>
-      <c r="D310" s="8"/>
-      <c r="E310" s="8"/>
+        <v>192</v>
+      </c>
+      <c r="D310" s="11"/>
+      <c r="E310" s="11"/>
       <c r="F310" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -7122,15 +7147,15 @@
         <v>255</v>
       </c>
       <c r="B311" s="6">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C311" s="6">
-        <v>192</v>
-      </c>
-      <c r="D311" s="8"/>
-      <c r="E311" s="8"/>
+        <v>193</v>
+      </c>
+      <c r="D311" s="11"/>
+      <c r="E311" s="11"/>
       <c r="F311" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7138,15 +7163,15 @@
         <v>255</v>
       </c>
       <c r="B312" s="6">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C312" s="6">
-        <v>193</v>
-      </c>
-      <c r="D312" s="8"/>
-      <c r="E312" s="8"/>
+        <v>194</v>
+      </c>
+      <c r="D312" s="11"/>
+      <c r="E312" s="11"/>
       <c r="F312" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -7154,15 +7179,15 @@
         <v>255</v>
       </c>
       <c r="B313" s="6">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C313" s="6">
-        <v>194</v>
-      </c>
-      <c r="D313" s="8"/>
-      <c r="E313" s="8"/>
+        <v>195</v>
+      </c>
+      <c r="D313" s="11"/>
+      <c r="E313" s="11"/>
       <c r="F313" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -7170,15 +7195,15 @@
         <v>255</v>
       </c>
       <c r="B314" s="6">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C314" s="6">
-        <v>195</v>
-      </c>
-      <c r="D314" s="8"/>
-      <c r="E314" s="8"/>
+        <v>196</v>
+      </c>
+      <c r="D314" s="11"/>
+      <c r="E314" s="11"/>
       <c r="F314" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -7186,15 +7211,15 @@
         <v>255</v>
       </c>
       <c r="B315" s="6">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C315" s="6">
-        <v>196</v>
-      </c>
-      <c r="D315" s="8"/>
-      <c r="E315" s="8"/>
+        <v>197</v>
+      </c>
+      <c r="D315" s="11"/>
+      <c r="E315" s="11"/>
       <c r="F315" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -7202,15 +7227,15 @@
         <v>255</v>
       </c>
       <c r="B316" s="6">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C316" s="6">
-        <v>197</v>
-      </c>
-      <c r="D316" s="8"/>
-      <c r="E316" s="8"/>
+        <v>198</v>
+      </c>
+      <c r="D316" s="11"/>
+      <c r="E316" s="11"/>
       <c r="F316" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -7218,15 +7243,15 @@
         <v>255</v>
       </c>
       <c r="B317" s="6">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C317" s="6">
-        <v>198</v>
-      </c>
-      <c r="D317" s="8"/>
-      <c r="E317" s="8"/>
+        <v>199</v>
+      </c>
+      <c r="D317" s="11"/>
+      <c r="E317" s="11"/>
       <c r="F317" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -7234,15 +7259,15 @@
         <v>255</v>
       </c>
       <c r="B318" s="6">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C318" s="6">
-        <v>199</v>
-      </c>
-      <c r="D318" s="8"/>
-      <c r="E318" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="D318" s="11"/>
+      <c r="E318" s="11"/>
       <c r="F318" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -7250,15 +7275,15 @@
         <v>255</v>
       </c>
       <c r="B319" s="6">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C319" s="6">
-        <v>200</v>
-      </c>
-      <c r="D319" s="8"/>
-      <c r="E319" s="8"/>
+        <v>201</v>
+      </c>
+      <c r="D319" s="11"/>
+      <c r="E319" s="11"/>
       <c r="F319" s="7" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -7266,15 +7291,15 @@
         <v>255</v>
       </c>
       <c r="B320" s="6">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C320" s="6">
-        <v>201</v>
-      </c>
-      <c r="D320" s="8"/>
-      <c r="E320" s="8"/>
+        <v>202</v>
+      </c>
+      <c r="D320" s="11"/>
+      <c r="E320" s="11"/>
       <c r="F320" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7282,15 +7307,15 @@
         <v>255</v>
       </c>
       <c r="B321" s="6">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C321" s="6">
-        <v>202</v>
-      </c>
-      <c r="D321" s="8"/>
-      <c r="E321" s="8"/>
+        <v>203</v>
+      </c>
+      <c r="D321" s="11"/>
+      <c r="E321" s="11"/>
       <c r="F321" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7298,15 +7323,15 @@
         <v>255</v>
       </c>
       <c r="B322" s="6">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C322" s="6">
-        <v>203</v>
-      </c>
-      <c r="D322" s="8"/>
-      <c r="E322" s="8"/>
+        <v>204</v>
+      </c>
+      <c r="D322" s="11"/>
+      <c r="E322" s="11"/>
       <c r="F322" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7314,15 +7339,15 @@
         <v>255</v>
       </c>
       <c r="B323" s="6">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C323" s="6">
-        <v>204</v>
-      </c>
-      <c r="D323" s="8"/>
-      <c r="E323" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="D323" s="11"/>
+      <c r="E323" s="11"/>
       <c r="F323" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7330,15 +7355,15 @@
         <v>255</v>
       </c>
       <c r="B324" s="6">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C324" s="6">
-        <v>205</v>
-      </c>
-      <c r="D324" s="8"/>
-      <c r="E324" s="8"/>
+        <v>206</v>
+      </c>
+      <c r="D324" s="11"/>
+      <c r="E324" s="11"/>
       <c r="F324" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7346,47 +7371,45 @@
         <v>255</v>
       </c>
       <c r="B325" s="6">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C325" s="6">
-        <v>206</v>
-      </c>
-      <c r="D325" s="8"/>
-      <c r="E325" s="8"/>
+        <v>207</v>
+      </c>
+      <c r="D325" s="11"/>
+      <c r="E325" s="11"/>
       <c r="F325" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B326" s="6">
-        <v>207</v>
-      </c>
-      <c r="C326" s="6">
-        <v>207</v>
-      </c>
-      <c r="D326" s="8"/>
-      <c r="E326" s="8"/>
-      <c r="F326" s="7" t="s">
-        <v>172</v>
+      <c r="B326" s="5">
+        <v>208</v>
+      </c>
+      <c r="C326" s="5">
+        <v>208</v>
+      </c>
+      <c r="D326" s="11"/>
+      <c r="E326" s="11"/>
+      <c r="F326" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B327" s="5">
-        <v>208</v>
-      </c>
-      <c r="C327" s="5">
-        <v>208</v>
-      </c>
-      <c r="D327" s="8"/>
-      <c r="E327" s="8"/>
-      <c r="F327" s="8" t="s">
-        <v>174</v>
+      <c r="B327" s="6">
+        <v>209</v>
+      </c>
+      <c r="C327" s="6">
+        <v>209</v>
+      </c>
+      <c r="F327" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7394,13 +7417,13 @@
         <v>255</v>
       </c>
       <c r="B328" s="6">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C328" s="6">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F328" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7408,13 +7431,13 @@
         <v>255</v>
       </c>
       <c r="B329" s="6">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C329" s="6">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F329" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7422,13 +7445,13 @@
         <v>255</v>
       </c>
       <c r="B330" s="6">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C330" s="6">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F330" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7436,13 +7459,13 @@
         <v>255</v>
       </c>
       <c r="B331" s="6">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C331" s="6">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F331" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7450,13 +7473,13 @@
         <v>255</v>
       </c>
       <c r="B332" s="6">
+        <v>214</v>
+      </c>
+      <c r="C332" s="6">
+        <v>214</v>
+      </c>
+      <c r="F332" t="s">
         <v>213</v>
-      </c>
-      <c r="C332" s="6">
-        <v>213</v>
-      </c>
-      <c r="F332" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7464,13 +7487,13 @@
         <v>255</v>
       </c>
       <c r="B333" s="6">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C333" s="6">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F333" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7478,13 +7501,13 @@
         <v>255</v>
       </c>
       <c r="B334" s="6">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C334" s="6">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F334" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7492,13 +7515,13 @@
         <v>255</v>
       </c>
       <c r="B335" s="6">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C335" s="6">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F335" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7506,13 +7529,13 @@
         <v>255</v>
       </c>
       <c r="B336" s="6">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C336" s="6">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F336" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7520,13 +7543,13 @@
         <v>255</v>
       </c>
       <c r="B337" s="6">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C337" s="6">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F337" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7534,13 +7557,13 @@
         <v>255</v>
       </c>
       <c r="B338" s="6">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C338" s="6">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F338" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7548,13 +7571,13 @@
         <v>255</v>
       </c>
       <c r="B339" s="6">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C339" s="6">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F339" t="s">
-        <v>254</v>
+        <v>152</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7562,13 +7585,13 @@
         <v>255</v>
       </c>
       <c r="B340" s="6">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C340" s="6">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F340" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7576,13 +7599,13 @@
         <v>255</v>
       </c>
       <c r="B341" s="6">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C341" s="6">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F341" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7590,13 +7613,13 @@
         <v>255</v>
       </c>
       <c r="B342" s="6">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C342" s="6">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F342" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7604,13 +7627,13 @@
         <v>255</v>
       </c>
       <c r="B343" s="6">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C343" s="6">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F343" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7618,13 +7641,13 @@
         <v>255</v>
       </c>
       <c r="B344" s="6">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C344" s="6">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F344" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7632,13 +7655,13 @@
         <v>255</v>
       </c>
       <c r="B345" s="6">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C345" s="6">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F345" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7646,13 +7669,13 @@
         <v>255</v>
       </c>
       <c r="B346" s="6">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C346" s="6">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F346" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7660,13 +7683,13 @@
         <v>255</v>
       </c>
       <c r="B347" s="6">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C347" s="6">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F347" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7674,13 +7697,13 @@
         <v>255</v>
       </c>
       <c r="B348" s="6">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C348" s="6">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F348" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -7688,13 +7711,13 @@
         <v>255</v>
       </c>
       <c r="B349" s="6">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C349" s="6">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F349" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7702,13 +7725,13 @@
         <v>255</v>
       </c>
       <c r="B350" s="6">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C350" s="6">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F350" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -7716,13 +7739,13 @@
         <v>255</v>
       </c>
       <c r="B351" s="6">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C351" s="6">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F351" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -7730,13 +7753,13 @@
         <v>255</v>
       </c>
       <c r="B352" s="6">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C352" s="6">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F352" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -7744,13 +7767,13 @@
         <v>255</v>
       </c>
       <c r="B353" s="6">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C353" s="6">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F353" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7758,13 +7781,13 @@
         <v>255</v>
       </c>
       <c r="B354" s="6">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C354" s="6">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F354" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -7772,13 +7795,13 @@
         <v>255</v>
       </c>
       <c r="B355" s="6">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C355" s="6">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F355" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -7786,13 +7809,13 @@
         <v>255</v>
       </c>
       <c r="B356" s="6">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C356" s="6">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F356" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -7800,13 +7823,13 @@
         <v>255</v>
       </c>
       <c r="B357" s="6">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C357" s="6">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F357" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -7814,64 +7837,50 @@
         <v>255</v>
       </c>
       <c r="B358" s="6">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C358" s="6">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F358" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6">
-      <c r="A359" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B359" s="6">
-        <v>240</v>
-      </c>
-      <c r="C359" s="6">
-        <v>240</v>
-      </c>
-      <c r="F359" t="s">
         <v>253</v>
       </c>
     </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="6"/>
+      <c r="B359" s="6"/>
+      <c r="C359" s="6"/>
+    </row>
     <row r="360" spans="1:3">
-      <c r="A360" s="6"/>
-      <c r="B360" s="6"/>
-      <c r="C360" s="6"/>
+      <c r="A360" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B360" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C360" s="16" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="361" spans="1:3">
-      <c r="A361" s="9" t="s">
+      <c r="A361" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B361" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C361" s="11" t="s">
-        <v>257</v>
+      <c r="B361" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C361" s="16" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="362" spans="1:3">
-      <c r="A362" s="9" t="s">
+      <c r="A362" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B362" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C362" s="11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
-      <c r="A363" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B363" s="10" t="s">
+      <c r="B362" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C363" s="11" t="s">
+      <c r="C362" s="16" t="s">
         <v>259</v>
       </c>
     </row>
@@ -7890,7 +7899,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ONCHO/Impact Assessments/Togo/tg_oncho_stop_1_site_202204.xlsx
+++ b/ONCHO/Impact Assessments/Togo/tg_oncho_stop_1_site_202204.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12315" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="266">
   <si>
     <t>type</t>
   </si>
@@ -579,9 +579,6 @@
     <t>DATOUDJENA</t>
   </si>
   <si>
-    <t>Naki-Ouest</t>
-  </si>
-  <si>
     <t>NABOAGBANE</t>
   </si>
   <si>
@@ -810,10 +807,10 @@
     <t xml:space="preserve">allow_choice_duplicates </t>
   </si>
   <si>
-    <t>(Avr 2022) ONCHO stop TDM - 1. Formulaire Site</t>
-  </si>
-  <si>
-    <t>tg_oncho_stop_1_site_202204</t>
+    <t>(Avr 2022) ONCHO stop TDM - 1. Formulaire Site V2</t>
+  </si>
+  <si>
+    <t>tg_oncho_stop_1_site_202204_2</t>
   </si>
   <si>
     <t>French</t>
@@ -824,10 +821,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -884,28 +881,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -919,6 +894,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -939,7 +921,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -954,37 +958,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,8 +971,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1045,7 +1042,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,73 +1162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,37 +1174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,7 +1192,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,31 +1216,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,6 +1293,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1307,6 +1315,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1325,165 +1342,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2199,10 +2196,10 @@
   <sheetPr/>
   <dimension ref="A1:J362"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="$A35:$XFD35"/>
+      <selection pane="bottomLeft" activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4538,7 +4535,7 @@
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="F147" s="11"/>
     </row>
@@ -4547,10 +4544,10 @@
         <v>51</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="7" t="s">
@@ -4563,10 +4560,10 @@
         <v>51</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D149" s="7"/>
       <c r="E149" s="7" t="s">
@@ -4579,10 +4576,10 @@
         <v>51</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D150" s="7"/>
       <c r="E150" s="7" t="s">
@@ -4595,10 +4592,10 @@
         <v>51</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7" t="s">
@@ -4611,10 +4608,10 @@
         <v>51</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="7" t="s">
@@ -4627,10 +4624,10 @@
         <v>51</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="7" t="s">
@@ -4643,10 +4640,10 @@
         <v>51</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="7" t="s">
@@ -4659,10 +4656,10 @@
         <v>51</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D155" s="7"/>
       <c r="E155" s="7" t="s">
@@ -4675,10 +4672,10 @@
         <v>51</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7" t="s">
@@ -4691,10 +4688,10 @@
         <v>51</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="7" t="s">
@@ -4707,10 +4704,10 @@
         <v>51</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7" t="s">
@@ -4723,10 +4720,10 @@
         <v>51</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7" t="s">
@@ -4739,10 +4736,10 @@
         <v>51</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7" t="s">
@@ -4755,10 +4752,10 @@
         <v>51</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="7" t="s">
@@ -4771,10 +4768,10 @@
         <v>51</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="7" t="s">
@@ -4787,10 +4784,10 @@
         <v>51</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="7" t="s">
@@ -4803,10 +4800,10 @@
         <v>51</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D164" s="7"/>
       <c r="E164" s="7" t="s">
@@ -4819,10 +4816,10 @@
         <v>51</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="7" t="s">
@@ -4835,10 +4832,10 @@
         <v>51</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D166" s="7"/>
       <c r="E166" s="7" t="s">
@@ -4851,10 +4848,10 @@
         <v>51</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="7" t="s">
@@ -4867,10 +4864,10 @@
         <v>51</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D168" s="7"/>
       <c r="E168" s="7" t="s">
@@ -4883,10 +4880,10 @@
         <v>51</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D169" s="7"/>
       <c r="E169" s="7" t="s">
@@ -4899,10 +4896,10 @@
         <v>51</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D170" s="7"/>
       <c r="E170" s="7" t="s">
@@ -4915,10 +4912,10 @@
         <v>51</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D171" s="7"/>
       <c r="E171" s="7" t="s">
@@ -4931,10 +4928,10 @@
         <v>51</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D172" s="7"/>
       <c r="E172" s="7" t="s">
@@ -4947,10 +4944,10 @@
         <v>51</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D173" s="7"/>
       <c r="E173" s="7" t="s">
@@ -4963,10 +4960,10 @@
         <v>51</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="7" t="s">
@@ -4979,10 +4976,10 @@
         <v>51</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D175" s="7"/>
       <c r="E175" s="7" t="s">
@@ -4995,10 +4992,10 @@
         <v>51</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D176" s="7"/>
       <c r="E176" s="7" t="s">
@@ -5011,10 +5008,10 @@
         <v>51</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D177" s="7"/>
       <c r="E177" s="7" t="s">
@@ -5043,10 +5040,10 @@
         <v>51</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D179" s="7"/>
       <c r="E179" s="7" t="s">
@@ -5059,10 +5056,10 @@
         <v>51</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7" t="s">
@@ -5075,10 +5072,10 @@
         <v>51</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7" t="s">
@@ -5091,10 +5088,10 @@
         <v>51</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7" t="s">
@@ -5107,10 +5104,10 @@
         <v>51</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="7" t="s">
@@ -5123,10 +5120,10 @@
         <v>51</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D184" s="7"/>
       <c r="E184" s="7" t="s">
@@ -5139,10 +5136,10 @@
         <v>51</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D185" s="7"/>
       <c r="E185" s="7" t="s">
@@ -5155,10 +5152,10 @@
         <v>51</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D186" s="7"/>
       <c r="E186" s="7" t="s">
@@ -5171,10 +5168,10 @@
         <v>51</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D187" s="7"/>
       <c r="E187" s="7" t="s">
@@ -5187,10 +5184,10 @@
         <v>51</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D188" s="7"/>
       <c r="E188" s="7" t="s">
@@ -5219,10 +5216,10 @@
         <v>51</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D190" s="7"/>
       <c r="E190" s="7" t="s">
@@ -5235,10 +5232,10 @@
         <v>51</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D191" s="7"/>
       <c r="E191" s="7" t="s">
@@ -5251,10 +5248,10 @@
         <v>51</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D192" s="7"/>
       <c r="E192" s="7" t="s">
@@ -5267,10 +5264,10 @@
         <v>51</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D193" s="7"/>
       <c r="E193" s="7" t="s">
@@ -5283,10 +5280,10 @@
         <v>51</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D194" s="7"/>
       <c r="E194" s="7" t="s">
@@ -5299,10 +5296,10 @@
         <v>51</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D195" s="7"/>
       <c r="E195" s="7" t="s">
@@ -5315,10 +5312,10 @@
         <v>51</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D196" s="7"/>
       <c r="E196" s="7" t="s">
@@ -5331,10 +5328,10 @@
         <v>51</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D197" s="7"/>
       <c r="E197" s="7" t="s">
@@ -5347,10 +5344,10 @@
         <v>51</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D198" s="7"/>
       <c r="E198" s="7" t="s">
@@ -5363,10 +5360,10 @@
         <v>51</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D199" s="7"/>
       <c r="E199" s="7" t="s">
@@ -5379,10 +5376,10 @@
         <v>51</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D200" s="7"/>
       <c r="E200" s="7" t="s">
@@ -5395,10 +5392,10 @@
         <v>51</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D201" s="7"/>
       <c r="E201" s="7" t="s">
@@ -5411,10 +5408,10 @@
         <v>51</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D202" s="7"/>
       <c r="E202" s="7" t="s">
@@ -5427,10 +5424,10 @@
         <v>51</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D203" s="7"/>
       <c r="E203" s="7" t="s">
@@ -5443,10 +5440,10 @@
         <v>51</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D204" s="7"/>
       <c r="E204" s="7" t="s">
@@ -5459,10 +5456,10 @@
         <v>51</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D205" s="7"/>
       <c r="E205" s="7" t="s">
@@ -5475,10 +5472,10 @@
         <v>51</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D206" s="7"/>
       <c r="E206" s="7" t="s">
@@ -5491,10 +5488,10 @@
         <v>51</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D207" s="7"/>
       <c r="E207" s="7" t="s">
@@ -5507,10 +5504,10 @@
         <v>51</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D208" s="7"/>
       <c r="E208" s="7" t="s">
@@ -5523,10 +5520,10 @@
         <v>51</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D209" s="7"/>
       <c r="E209" s="7" t="s">
@@ -5555,10 +5552,10 @@
         <v>51</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D211" s="7"/>
       <c r="E211" s="7" t="s">
@@ -5571,10 +5568,10 @@
         <v>51</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D212" s="7"/>
       <c r="E212" s="7" t="s">
@@ -5587,10 +5584,10 @@
         <v>51</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D213" s="7"/>
       <c r="E213" s="7" t="s">
@@ -5603,10 +5600,10 @@
         <v>51</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D214" s="7"/>
       <c r="E214" s="7" t="s">
@@ -5619,10 +5616,10 @@
         <v>51</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D215" s="7"/>
       <c r="E215" s="7" t="s">
@@ -5635,10 +5632,10 @@
         <v>51</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D216" s="7"/>
       <c r="E216" s="7" t="s">
@@ -5651,10 +5648,10 @@
         <v>51</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D217" s="7"/>
       <c r="E217" s="7" t="s">
@@ -5672,7 +5669,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B219" s="6">
         <v>101</v>
@@ -5688,7 +5685,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B220" s="6">
         <v>102</v>
@@ -5704,7 +5701,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B221" s="6">
         <v>103</v>
@@ -5720,7 +5717,7 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B222" s="6">
         <v>104</v>
@@ -5736,7 +5733,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B223" s="6">
         <v>105</v>
@@ -5752,7 +5749,7 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B224" s="6">
         <v>106</v>
@@ -5768,7 +5765,7 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B225" s="6">
         <v>107</v>
@@ -5784,7 +5781,7 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B226" s="6">
         <v>108</v>
@@ -5800,7 +5797,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B227" s="6">
         <v>109</v>
@@ -5816,7 +5813,7 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B228" s="6">
         <v>110</v>
@@ -5832,7 +5829,7 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B229" s="6">
         <v>111</v>
@@ -5848,7 +5845,7 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B230" s="6">
         <v>112</v>
@@ -5864,7 +5861,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B231" s="6">
         <v>113</v>
@@ -5875,12 +5872,12 @@
       <c r="D231" s="11"/>
       <c r="E231" s="11"/>
       <c r="F231" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B232" s="6">
         <v>114</v>
@@ -5891,12 +5888,12 @@
       <c r="D232" s="11"/>
       <c r="E232" s="11"/>
       <c r="F232" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B233" s="6">
         <v>115</v>
@@ -5907,12 +5904,12 @@
       <c r="D233" s="11"/>
       <c r="E233" s="11"/>
       <c r="F233" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B234" s="6">
         <v>116</v>
@@ -5928,7 +5925,7 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B235" s="6">
         <v>117</v>
@@ -5944,7 +5941,7 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B236" s="6">
         <v>118</v>
@@ -5960,7 +5957,7 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B237" s="6">
         <v>119</v>
@@ -5976,7 +5973,7 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B238" s="6">
         <v>120</v>
@@ -5992,7 +5989,7 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B239" s="6">
         <v>121</v>
@@ -6008,7 +6005,7 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B240" s="6">
         <v>122</v>
@@ -6024,7 +6021,7 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B241" s="6">
         <v>123</v>
@@ -6040,7 +6037,7 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B242" s="6">
         <v>124</v>
@@ -6056,7 +6053,7 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B243" s="6">
         <v>125</v>
@@ -6072,7 +6069,7 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B244" s="6">
         <v>126</v>
@@ -6083,12 +6080,12 @@
       <c r="D244" s="11"/>
       <c r="E244" s="11"/>
       <c r="F244" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B245" s="6">
         <v>127</v>
@@ -6099,12 +6096,12 @@
       <c r="D245" s="11"/>
       <c r="E245" s="11"/>
       <c r="F245" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B246" s="6">
         <v>128</v>
@@ -6115,12 +6112,12 @@
       <c r="D246" s="11"/>
       <c r="E246" s="11"/>
       <c r="F246" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B247" s="6">
         <v>129</v>
@@ -6131,12 +6128,12 @@
       <c r="D247" s="11"/>
       <c r="E247" s="11"/>
       <c r="F247" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B248" s="6">
         <v>130</v>
@@ -6147,12 +6144,12 @@
       <c r="D248" s="11"/>
       <c r="E248" s="11"/>
       <c r="F248" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B249" s="6">
         <v>131</v>
@@ -6163,12 +6160,12 @@
       <c r="D249" s="11"/>
       <c r="E249" s="11"/>
       <c r="F249" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B250" s="6">
         <v>132</v>
@@ -6179,12 +6176,12 @@
       <c r="D250" s="11"/>
       <c r="E250" s="11"/>
       <c r="F250" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B251" s="6">
         <v>133</v>
@@ -6195,12 +6192,12 @@
       <c r="D251" s="11"/>
       <c r="E251" s="11"/>
       <c r="F251" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B252" s="6">
         <v>134</v>
@@ -6211,12 +6208,12 @@
       <c r="D252" s="11"/>
       <c r="E252" s="11"/>
       <c r="F252" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B253" s="6">
         <v>135</v>
@@ -6232,7 +6229,7 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B254" s="6">
         <v>136</v>
@@ -6248,7 +6245,7 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B255" s="6">
         <v>137</v>
@@ -6264,7 +6261,7 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="6">
         <v>138</v>
@@ -6280,7 +6277,7 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B257" s="6">
         <v>139</v>
@@ -6296,7 +6293,7 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B258" s="6">
         <v>140</v>
@@ -6307,12 +6304,12 @@
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
       <c r="F258" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B259" s="6">
         <v>141</v>
@@ -6323,12 +6320,12 @@
       <c r="D259" s="11"/>
       <c r="E259" s="11"/>
       <c r="F259" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B260" s="6">
         <v>142</v>
@@ -6339,12 +6336,12 @@
       <c r="D260" s="11"/>
       <c r="E260" s="11"/>
       <c r="F260" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B261" s="6">
         <v>143</v>
@@ -6355,12 +6352,12 @@
       <c r="D261" s="11"/>
       <c r="E261" s="11"/>
       <c r="F261" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B262" s="6">
         <v>144</v>
@@ -6371,12 +6368,12 @@
       <c r="D262" s="11"/>
       <c r="E262" s="11"/>
       <c r="F262" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B263" s="6">
         <v>145</v>
@@ -6387,12 +6384,12 @@
       <c r="D263" s="11"/>
       <c r="E263" s="11"/>
       <c r="F263" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B264" s="6">
         <v>146</v>
@@ -6403,12 +6400,12 @@
       <c r="D264" s="11"/>
       <c r="E264" s="11"/>
       <c r="F264" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B265" s="6">
         <v>147</v>
@@ -6424,7 +6421,7 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B266" s="6">
         <v>148</v>
@@ -6440,7 +6437,7 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B267" s="6">
         <v>149</v>
@@ -6456,7 +6453,7 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B268" s="6">
         <v>150</v>
@@ -6472,7 +6469,7 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B269" s="6">
         <v>151</v>
@@ -6488,7 +6485,7 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B270" s="6">
         <v>152</v>
@@ -6504,7 +6501,7 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B271" s="6">
         <v>153</v>
@@ -6520,7 +6517,7 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B272" s="6">
         <v>154</v>
@@ -6536,7 +6533,7 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B273" s="6">
         <v>155</v>
@@ -6552,7 +6549,7 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B274" s="6">
         <v>156</v>
@@ -6568,7 +6565,7 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B275" s="6">
         <v>157</v>
@@ -6584,7 +6581,7 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B276" s="6">
         <v>158</v>
@@ -6600,7 +6597,7 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B277" s="6">
         <v>159</v>
@@ -6616,7 +6613,7 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B278" s="6">
         <v>160</v>
@@ -6632,7 +6629,7 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B279" s="6">
         <v>161</v>
@@ -6648,7 +6645,7 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B280" s="6">
         <v>162</v>
@@ -6664,7 +6661,7 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B281" s="6">
         <v>163</v>
@@ -6680,7 +6677,7 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B282" s="6">
         <v>164</v>
@@ -6691,12 +6688,12 @@
       <c r="D282" s="11"/>
       <c r="E282" s="11"/>
       <c r="F282" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B283" s="6">
         <v>165</v>
@@ -6707,12 +6704,12 @@
       <c r="D283" s="11"/>
       <c r="E283" s="11"/>
       <c r="F283" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B284" s="6">
         <v>166</v>
@@ -6723,12 +6720,12 @@
       <c r="D284" s="11"/>
       <c r="E284" s="11"/>
       <c r="F284" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B285" s="6">
         <v>167</v>
@@ -6739,12 +6736,12 @@
       <c r="D285" s="11"/>
       <c r="E285" s="11"/>
       <c r="F285" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B286" s="6">
         <v>168</v>
@@ -6755,12 +6752,12 @@
       <c r="D286" s="11"/>
       <c r="E286" s="11"/>
       <c r="F286" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B287" s="6">
         <v>169</v>
@@ -6776,7 +6773,7 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B288" s="6">
         <v>170</v>
@@ -6787,12 +6784,12 @@
       <c r="D288" s="11"/>
       <c r="E288" s="11"/>
       <c r="F288" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B289" s="6">
         <v>171</v>
@@ -6803,12 +6800,12 @@
       <c r="D289" s="11"/>
       <c r="E289" s="11"/>
       <c r="F289" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B290" s="6">
         <v>172</v>
@@ -6819,12 +6816,12 @@
       <c r="D290" s="11"/>
       <c r="E290" s="11"/>
       <c r="F290" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B291" s="6">
         <v>173</v>
@@ -6835,12 +6832,12 @@
       <c r="D291" s="11"/>
       <c r="E291" s="11"/>
       <c r="F291" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B292" s="6">
         <v>174</v>
@@ -6851,12 +6848,12 @@
       <c r="D292" s="11"/>
       <c r="E292" s="11"/>
       <c r="F292" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B293" s="6">
         <v>175</v>
@@ -6867,12 +6864,12 @@
       <c r="D293" s="11"/>
       <c r="E293" s="11"/>
       <c r="F293" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B294" s="6">
         <v>176</v>
@@ -6883,12 +6880,12 @@
       <c r="D294" s="11"/>
       <c r="E294" s="11"/>
       <c r="F294" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B295" s="6">
         <v>177</v>
@@ -6899,12 +6896,12 @@
       <c r="D295" s="11"/>
       <c r="E295" s="11"/>
       <c r="F295" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B296" s="6">
         <v>178</v>
@@ -6915,12 +6912,12 @@
       <c r="D296" s="11"/>
       <c r="E296" s="11"/>
       <c r="F296" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B297" s="6">
         <v>179</v>
@@ -6936,7 +6933,7 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B298" s="6">
         <v>180</v>
@@ -6952,7 +6949,7 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B299" s="6">
         <v>181</v>
@@ -6968,7 +6965,7 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B300" s="6">
         <v>182</v>
@@ -6984,7 +6981,7 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B301" s="6">
         <v>183</v>
@@ -7000,7 +6997,7 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B302" s="6">
         <v>184</v>
@@ -7016,7 +7013,7 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B303" s="6">
         <v>185</v>
@@ -7032,7 +7029,7 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B304" s="6">
         <v>186</v>
@@ -7048,7 +7045,7 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B305" s="6">
         <v>187</v>
@@ -7064,7 +7061,7 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B306" s="6">
         <v>188</v>
@@ -7080,7 +7077,7 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B307" s="6">
         <v>189</v>
@@ -7096,7 +7093,7 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B308" s="6">
         <v>190</v>
@@ -7107,12 +7104,12 @@
       <c r="D308" s="11"/>
       <c r="E308" s="11"/>
       <c r="F308" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B309" s="6">
         <v>191</v>
@@ -7123,12 +7120,12 @@
       <c r="D309" s="11"/>
       <c r="E309" s="11"/>
       <c r="F309" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B310" s="6">
         <v>192</v>
@@ -7139,12 +7136,12 @@
       <c r="D310" s="11"/>
       <c r="E310" s="11"/>
       <c r="F310" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B311" s="6">
         <v>193</v>
@@ -7155,12 +7152,12 @@
       <c r="D311" s="11"/>
       <c r="E311" s="11"/>
       <c r="F311" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B312" s="6">
         <v>194</v>
@@ -7171,12 +7168,12 @@
       <c r="D312" s="11"/>
       <c r="E312" s="11"/>
       <c r="F312" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B313" s="6">
         <v>195</v>
@@ -7187,12 +7184,12 @@
       <c r="D313" s="11"/>
       <c r="E313" s="11"/>
       <c r="F313" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B314" s="6">
         <v>196</v>
@@ -7203,12 +7200,12 @@
       <c r="D314" s="11"/>
       <c r="E314" s="11"/>
       <c r="F314" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B315" s="6">
         <v>197</v>
@@ -7219,12 +7216,12 @@
       <c r="D315" s="11"/>
       <c r="E315" s="11"/>
       <c r="F315" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B316" s="6">
         <v>198</v>
@@ -7235,12 +7232,12 @@
       <c r="D316" s="11"/>
       <c r="E316" s="11"/>
       <c r="F316" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B317" s="6">
         <v>199</v>
@@ -7251,12 +7248,12 @@
       <c r="D317" s="11"/>
       <c r="E317" s="11"/>
       <c r="F317" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B318" s="6">
         <v>200</v>
@@ -7267,12 +7264,12 @@
       <c r="D318" s="11"/>
       <c r="E318" s="11"/>
       <c r="F318" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B319" s="6">
         <v>201</v>
@@ -7288,7 +7285,7 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B320" s="6">
         <v>202</v>
@@ -7304,7 +7301,7 @@
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B321" s="6">
         <v>203</v>
@@ -7320,7 +7317,7 @@
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B322" s="6">
         <v>204</v>
@@ -7336,7 +7333,7 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B323" s="6">
         <v>205</v>
@@ -7352,7 +7349,7 @@
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B324" s="6">
         <v>206</v>
@@ -7368,7 +7365,7 @@
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B325" s="6">
         <v>207</v>
@@ -7384,7 +7381,7 @@
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B326" s="5">
         <v>208</v>
@@ -7400,7 +7397,7 @@
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B327" s="6">
         <v>209</v>
@@ -7414,7 +7411,7 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B328" s="6">
         <v>210</v>
@@ -7423,12 +7420,12 @@
         <v>210</v>
       </c>
       <c r="F328" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B329" s="6">
         <v>211</v>
@@ -7437,12 +7434,12 @@
         <v>211</v>
       </c>
       <c r="F329" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B330" s="6">
         <v>212</v>
@@ -7451,12 +7448,12 @@
         <v>212</v>
       </c>
       <c r="F330" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B331" s="6">
         <v>213</v>
@@ -7465,12 +7462,12 @@
         <v>213</v>
       </c>
       <c r="F331" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B332" s="6">
         <v>214</v>
@@ -7479,12 +7476,12 @@
         <v>214</v>
       </c>
       <c r="F332" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B333" s="6">
         <v>215</v>
@@ -7493,12 +7490,12 @@
         <v>215</v>
       </c>
       <c r="F333" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B334" s="6">
         <v>216</v>
@@ -7507,12 +7504,12 @@
         <v>216</v>
       </c>
       <c r="F334" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B335" s="6">
         <v>217</v>
@@ -7521,12 +7518,12 @@
         <v>217</v>
       </c>
       <c r="F335" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B336" s="6">
         <v>218</v>
@@ -7535,12 +7532,12 @@
         <v>218</v>
       </c>
       <c r="F336" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B337" s="6">
         <v>219</v>
@@ -7549,12 +7546,12 @@
         <v>219</v>
       </c>
       <c r="F337" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B338" s="6">
         <v>220</v>
@@ -7563,12 +7560,12 @@
         <v>220</v>
       </c>
       <c r="F338" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B339" s="6">
         <v>221</v>
@@ -7582,7 +7579,7 @@
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B340" s="6">
         <v>222</v>
@@ -7596,7 +7593,7 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B341" s="6">
         <v>223</v>
@@ -7610,7 +7607,7 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B342" s="6">
         <v>224</v>
@@ -7624,7 +7621,7 @@
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B343" s="6">
         <v>225</v>
@@ -7638,7 +7635,7 @@
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B344" s="6">
         <v>226</v>
@@ -7652,7 +7649,7 @@
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B345" s="6">
         <v>227</v>
@@ -7666,7 +7663,7 @@
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B346" s="6">
         <v>228</v>
@@ -7675,12 +7672,12 @@
         <v>228</v>
       </c>
       <c r="F346" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B347" s="6">
         <v>229</v>
@@ -7694,7 +7691,7 @@
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B348" s="6">
         <v>230</v>
@@ -7703,12 +7700,12 @@
         <v>230</v>
       </c>
       <c r="F348" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B349" s="6">
         <v>231</v>
@@ -7717,12 +7714,12 @@
         <v>231</v>
       </c>
       <c r="F349" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B350" s="6">
         <v>232</v>
@@ -7731,12 +7728,12 @@
         <v>232</v>
       </c>
       <c r="F350" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B351" s="6">
         <v>233</v>
@@ -7745,12 +7742,12 @@
         <v>233</v>
       </c>
       <c r="F351" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B352" s="6">
         <v>234</v>
@@ -7759,12 +7756,12 @@
         <v>234</v>
       </c>
       <c r="F352" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B353" s="6">
         <v>235</v>
@@ -7773,12 +7770,12 @@
         <v>235</v>
       </c>
       <c r="F353" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B354" s="6">
         <v>236</v>
@@ -7787,12 +7784,12 @@
         <v>236</v>
       </c>
       <c r="F354" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B355" s="6">
         <v>237</v>
@@ -7801,12 +7798,12 @@
         <v>237</v>
       </c>
       <c r="F355" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B356" s="6">
         <v>238</v>
@@ -7815,12 +7812,12 @@
         <v>238</v>
       </c>
       <c r="F356" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B357" s="6">
         <v>239</v>
@@ -7829,12 +7826,12 @@
         <v>239</v>
       </c>
       <c r="F357" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B358" s="6">
         <v>240</v>
@@ -7843,7 +7840,7 @@
         <v>240</v>
       </c>
       <c r="F358" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -7853,35 +7850,35 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B360" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B360" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="C360" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -7899,8 +7896,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -7911,27 +7908,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
         <v>264</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>265</v>
-      </c>
-      <c r="C2" t="s">
-        <v>266</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
